--- a/data/Baseball_Roster.xlsx
+++ b/data/Baseball_Roster.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paul\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paul\Documents\Code\random-team\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22000499-F499-499E-AE54-E4F588591FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857D4367-781A-45B6-89EF-FEFC737FF431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6735" yWindow="2820" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
     <sheet name="Positions" sheetId="2" r:id="rId2"/>
-    <sheet name="Rules" sheetId="3" r:id="rId3"/>
+    <sheet name="Rules - Not working" sheetId="3" r:id="rId3"/>
+    <sheet name="Details" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
   <si>
     <t>Cole</t>
   </si>
@@ -125,6 +127,21 @@
   </si>
   <si>
     <t>In_Out</t>
+  </si>
+  <si>
+    <t>Rule_Word</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Min_Infield_Inning</t>
+  </si>
+  <si>
+    <t>Position_Restricted</t>
   </si>
 </sst>
 </file>
@@ -140,12 +157,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -160,8 +183,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,8 +502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D7EA05A-454D-164F-BD9B-2DC68160C030}">
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,27 +514,27 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -520,27 +544,27 @@
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -554,7 +578,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,82 +595,82 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -657,10 +681,63 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03A837E7-C381-4FD9-ACA0-2E02562979D5}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="125.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5400D80-081F-41CA-BB91-3F87A1F2F98D}">
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,26 +745,18 @@
     <col min="1" max="1" width="125.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
         <v>13</v>
       </c>
     </row>

--- a/data/Baseball_Roster.xlsx
+++ b/data/Baseball_Roster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paul\Documents\Code\random-team\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857D4367-781A-45B6-89EF-FEFC737FF431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E669C2-64DB-4FA4-A7E3-1F46FA14D384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="Details" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
   <si>
     <t>Cole</t>
   </si>
@@ -142,6 +141,39 @@
   </si>
   <si>
     <t>Position_Restricted</t>
+  </si>
+  <si>
+    <t>Main Inning 5: Player John is in position 1ST, INFIELD</t>
+  </si>
+  <si>
+    <t>Main Inning 5: Player Luke B is in position LC, OUTFIELD</t>
+  </si>
+  <si>
+    <t>Main Inning 5: Player Luke M is in position RF, OUTFIELD</t>
+  </si>
+  <si>
+    <t>Main Inning 5: Player Grayson is in position 3RD, INFIELD</t>
+  </si>
+  <si>
+    <t>Main Inning 5: Player Sean is in position RC, OUTFIELD</t>
+  </si>
+  <si>
+    <t>Main Inning 5: Player Graham is in position BENCHED, BENCHED</t>
+  </si>
+  <si>
+    <t>Main Inning 5: Player Ryan is in position BENCHED, BENCHED</t>
+  </si>
+  <si>
+    <t>Main Inning 5: Player Luca is in position 2ND, INFIELD</t>
+  </si>
+  <si>
+    <t>Main Inning 5: Player Cole is in position C, INFIELD</t>
+  </si>
+  <si>
+    <t>Main Inning 5: Player Colton is in position LF, OUTFIELD</t>
+  </si>
+  <si>
+    <t>Main Inning 5: Player Griffin is in position SS, INFIELD</t>
   </si>
 </sst>
 </file>
@@ -183,9 +215,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,7 +536,7 @@
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,10 +608,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA98480-D0D6-4CE9-9FBA-338339932BF1}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,92 +619,125 @@
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
       <c r="B1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="I1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="I10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>29</v>
+      </c>
+      <c r="I11" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -683,7 +749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03A837E7-C381-4FD9-ACA0-2E02562979D5}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -736,7 +802,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5400D80-081F-41CA-BB91-3F87A1F2F98D}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
